--- a/0109전처리.xlsx
+++ b/0109전처리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yms06\Project\SaMBILS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C21C3B-311D-4673-A6CD-524CFAFF49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDDD3A-A949-4D2D-8145-8F558E791B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{557250D7-BA13-48E2-B7E4-C8B0E15B0F03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{557250D7-BA13-48E2-B7E4-C8B0E15B0F03}"/>
   </bookViews>
   <sheets>
     <sheet name="나머지 값" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="613">
   <si>
     <t>URL</t>
   </si>
@@ -2108,6 +2108,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2863,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7D3FBF-8C4C-4760-878F-A47C2CE86BE6}">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3031,10 +3035,10 @@
     </row>
     <row r="2" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="B2" s="4">
-        <v>3761</v>
+        <v>1336</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -3043,42 +3047,46 @@
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="3" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="I2" s="4">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="N2" s="16"/>
+        <v>288</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O2" s="3" t="s">
-        <v>498</v>
+        <v>291</v>
       </c>
       <c r="P2" s="4">
-        <v>2000</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+        <v>1996</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="16"/>
       <c r="S2" s="6"/>
       <c r="T2" s="3" t="s">
-        <v>500</v>
+        <v>293</v>
       </c>
       <c r="U2" s="4">
         <v>1</v>
@@ -3088,31 +3096,31 @@
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="4">
         <v>10</v>
       </c>
       <c r="Z2" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="4">
         <v>10</v>
       </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
       <c r="AC2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>2</v>
       </c>
       <c r="AG2" s="4">
         <v>2</v>
@@ -3120,23 +3128,33 @@
       <c r="AH2" s="4">
         <v>2</v>
       </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
+      <c r="AI2" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="AN2" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AS2">
         <v>0</v>
       </c>
@@ -3159,13 +3177,557 @@
         <v>0</v>
       </c>
       <c r="AZ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2178</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="4">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1997</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AS3">
+        <v>900000</v>
+      </c>
+      <c r="AT3">
+        <v>900000</v>
+      </c>
+      <c r="AU3">
+        <v>13073660</v>
+      </c>
+      <c r="AV3">
+        <v>13540440</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>4226570</v>
+      </c>
+      <c r="AZ3">
+        <v>5743040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2763</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" s="4">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2002</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3">
+        <v>351</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AS4">
+        <v>500000</v>
+      </c>
+      <c r="AT4">
+        <v>500000</v>
+      </c>
+      <c r="AU4" s="28">
+        <v>66078232.000000007</v>
+      </c>
+      <c r="AV4">
+        <v>60071120</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="28">
+        <v>10780000</v>
+      </c>
+      <c r="AZ4">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="4">
+        <v>89367</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" s="4">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="4">
+        <v>117383</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="4">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ43" xr:uid="{EF7D3FBF-8C4C-4760-878F-A47C2CE86BE6}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A1:AZ42" xr:uid="{EF7D3FBF-8C4C-4760-878F-A47C2CE86BE6}"/>
+  <mergeCells count="5">
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3174,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E4447-D939-42ED-954F-E364A7196556}">
-  <dimension ref="A1:AZ58"/>
+  <dimension ref="A1:AZ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11189,8 +11751,760 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A59" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1197</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I59" s="4">
+        <v>71</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="O59" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P59" s="4">
+        <v>2001</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U59" s="4">
+        <v>1</v>
+      </c>
+      <c r="V59" s="3">
+        <v>2</v>
+      </c>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI59" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A60" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1199</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="4">
+        <v>71</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P60" s="4">
+        <v>2009</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="U60" s="4">
+        <v>1</v>
+      </c>
+      <c r="V60" s="3">
+        <v>2</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI60" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM60" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A61" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1203</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="G61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="4">
+        <v>71</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="O61" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P61" s="4">
+        <v>2013</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
+        <v>3</v>
+      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM61" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN61" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1261</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="G62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="4">
+        <v>71</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P62" s="4">
+        <v>2004</v>
+      </c>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U62" s="4">
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1</v>
+      </c>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI62" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="6"/>
+      <c r="AN62" s="6"/>
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="6"/>
+      <c r="AQ62" s="6"/>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>45680430</v>
+      </c>
+      <c r="AV62">
+        <v>40349700</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>1911760</v>
+      </c>
+      <c r="AZ62">
+        <v>3575010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A63" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B63" s="4">
+        <v>3761</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="33"/>
+      <c r="G63" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="4">
+        <v>73</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="O63" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="P63" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+      <c r="V63" s="3">
+        <v>4</v>
+      </c>
+      <c r="W63" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="X63" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH63" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="61">
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
@@ -11207,46 +12521,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11255,13 +12529,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181CBC1-3802-475F-9DAF-9B4C04B4CFFD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11438,7 +12711,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -11577,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -11718,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -11859,7 +13132,7 @@
         <v>2809860</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -11998,7 +13271,7 @@
         <v>1562260</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -12133,7 +13406,7 @@
         <v>-1680</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
@@ -12274,7 +13547,7 @@
         <v>593700</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -12421,7 +13694,7 @@
         <v>539130</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>110</v>
       </c>
@@ -12560,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>121</v>
       </c>
@@ -12701,7 +13974,7 @@
         <v>783260</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -12842,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
@@ -12981,7 +14254,7 @@
         <v>237670</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>148</v>
       </c>
@@ -13120,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>157</v>
       </c>
@@ -13257,7 +14530,7 @@
         <v>183060</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -13396,7 +14669,7 @@
         <v>689580</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>170</v>
       </c>
@@ -13537,7 +14810,7 @@
         <v>1649740</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>179</v>
       </c>
@@ -13678,7 +14951,7 @@
         <v>211380</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>187</v>
       </c>
@@ -13819,7 +15092,7 @@
         <v>317750</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>197</v>
       </c>
@@ -13958,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>205</v>
       </c>
@@ -14101,7 +15374,7 @@
         <v>2195981</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>214</v>
       </c>
@@ -14238,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
@@ -14947,7 +16220,7 @@
         <v>3575010</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="27" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>284</v>
       </c>
@@ -15094,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>297</v>
       </c>
@@ -15231,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="29" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>303</v>
       </c>
@@ -15370,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="30" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>310</v>
       </c>
@@ -15507,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="31" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>319</v>
       </c>
@@ -15644,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="32" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>328</v>
       </c>
@@ -15783,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>336</v>
       </c>
@@ -15926,7 +17199,7 @@
         <v>1181818</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="34" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>344</v>
       </c>
@@ -16065,7 +17338,7 @@
         <v>742090</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="35" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>351</v>
       </c>
@@ -16204,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>358</v>
       </c>
@@ -16341,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="37" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>364</v>
       </c>
@@ -16484,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>373</v>
       </c>
@@ -16623,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>380</v>
       </c>
@@ -16762,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>389</v>
       </c>
@@ -16903,7 +18176,7 @@
         <v>10341050</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="41" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>398</v>
       </c>
@@ -17042,7 +18315,7 @@
         <v>5743040</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="42" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>406</v>
       </c>
@@ -17177,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="43" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>412</v>
       </c>
@@ -17316,7 +18589,7 @@
         <v>62190</v>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="44" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>420</v>
       </c>
@@ -17455,7 +18728,7 @@
         <v>592040</v>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>428</v>
       </c>
@@ -17592,7 +18865,7 @@
         <v>-2696420</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>436</v>
       </c>
@@ -17735,7 +19008,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="47" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>445</v>
       </c>
@@ -17868,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>451</v>
       </c>
@@ -18005,7 +19278,7 @@
         <v>66750</v>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="49" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>458</v>
       </c>
@@ -18144,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="50" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>464</v>
       </c>
@@ -18283,7 +19556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="51" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>471</v>
       </c>
@@ -18424,7 +19697,7 @@
         <v>1315740</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A52" s="3" t="s">
         <v>479</v>
       </c>
@@ -18557,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="53" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A53" s="3" t="s">
         <v>486</v>
       </c>
@@ -18825,7 +20098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="55" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>501</v>
       </c>
@@ -18974,7 +20247,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="56" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>511</v>
       </c>
@@ -19113,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="57" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>518</v>
       </c>
@@ -19250,7 +20523,7 @@
         <v>29387000</v>
       </c>
     </row>
-    <row r="58" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="58" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>528</v>
       </c>
@@ -19381,7 +20654,7 @@
         <v>3675870</v>
       </c>
     </row>
-    <row r="59" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="59" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>533</v>
       </c>
@@ -19512,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="60" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>538</v>
       </c>
@@ -19647,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="61" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>544</v>
       </c>
@@ -19792,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="62" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A62" s="3" t="s">
         <v>555</v>
       </c>
@@ -19921,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="63" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>561</v>
       </c>
@@ -20054,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="64" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>568</v>
       </c>
@@ -20185,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="65" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>573</v>
       </c>
@@ -20318,7 +21591,7 @@
         <v>12141950</v>
       </c>
     </row>
-    <row r="66" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>579</v>
       </c>
@@ -20451,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="18.75" hidden="1" customHeight="1" thickBot="1">
+    <row r="67" spans="1:52" ht="18.75" customHeight="1" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>584</v>
       </c>
@@ -20589,14 +21862,64 @@
       <c r="D69" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ67" xr:uid="{E181CBC1-3802-475F-9DAF-9B4C04B4CFFD}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="11. 지식서비스업"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AZ67" xr:uid="{E181CBC1-3802-475F-9DAF-9B4C04B4CFFD}"/>
   <mergeCells count="65">
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -20606,62 +21929,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
